--- a/yubin.xlsx
+++ b/yubin.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/masakisakata/Documents/GitHub/OfficeWorkManual/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31D639D7-55D7-2044-9414-A49EF9C73432}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84AE7946-D7AF-BB44-97FE-5A9137C7E138}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-520" yWindow="4060" windowWidth="28300" windowHeight="16280" xr2:uid="{4021C7A9-AAE6-3A42-8BD9-2D4D43B228CB}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28300" windowHeight="16280" xr2:uid="{4021C7A9-AAE6-3A42-8BD9-2D4D43B228CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -470,7 +470,7 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
